--- a/mbs-perturbation/chain/welm/nearmiss/chain_welm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/chain/welm/nearmiss/chain_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4375</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.7039969834087482</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5625</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8051948051948051</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5238095238095237</v>
+        <v>0.8174962292609351</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.6643835616438356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.7503770739064857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4861660079051383</v>
+        <v>0.6952803294266708</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.7607466063348416</v>
       </c>
     </row>
   </sheetData>
